--- a/cypress/downloads/Muntazim User_payslip_Jul 4, 2025.xlsx
+++ b/cypress/downloads/Muntazim User_payslip_Jul 4, 2025.xlsx
@@ -456,55 +456,56 @@
         <v>-</v>
       </c>
       <c r="D6" t="str">
-        <v>$50,000.00</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>$50.00</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v/>
+        <v>Allowance</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Health Allowance</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="D7" t="str" xml:space="preserve">
+        <v xml:space="preserve">100%
+                                                            ($50.00)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Other Payment</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Other Payment</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Fixed</v>
-      </c>
-      <c r="D8" t="str">
-        <v>$1,000.00</v>
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>OverTime</v>
+        <v>Commission</v>
       </c>
       <c r="B9" t="str">
-        <v>Overtime Payment</v>
+        <v>New Commisi</v>
       </c>
       <c r="C9" t="str">
-        <v>-</v>
+        <v>Fixed</v>
       </c>
       <c r="D9" t="str">
-        <v>$437,500.00</v>
+        <v>$5,000.00</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>Saturation Deduction</v>
+        <v>Loan</v>
       </c>
       <c r="B10" t="str">
-        <v>GOSI Deduction</v>
+        <v>New Loan</v>
       </c>
       <c r="C10" t="str">
-        <v>Percentage</v>
+        <v>Fixed</v>
       </c>
       <c r="D10" t="str" xml:space="preserve">
         <v xml:space="preserve">10%
-                                                                                                                                                                                        ($5,000.00)</v>
+                                                            ($5.00)</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +518,7 @@
         <v>Net Salary</v>
       </c>
       <c r="B12" t="str">
-        <v>$483,500.00</v>
+        <v>$5,090.00</v>
       </c>
     </row>
   </sheetData>
